--- a/reportceneter_pom/ddlex.xlsx
+++ b/reportceneter_pom/ddlex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EclipseWorkspace\ReportCenterAutomation\reportceneter_pom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604664D6-B294-4644-B2E0-3F650EF410F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392EB0F-6FEE-4284-BC45-331B91FBFB69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{94D3A42D-4080-4CBF-BBB2-3630178CD065}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="12960" xr2:uid="{94D3A42D-4080-4CBF-BBB2-3630178CD065}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7320" uniqueCount="5660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="5663">
   <si>
     <t>Package Name</t>
   </si>
@@ -17017,6 +17017,15 @@
   </si>
   <si>
     <t>Zero Two Two One New Commercial Demo build Package</t>
+  </si>
+  <si>
+    <t>Credentials</t>
+  </si>
+  <si>
+    <t>qauser40</t>
+  </si>
+  <si>
+    <t>QA0505qa</t>
   </si>
 </sst>
 </file>
@@ -17378,387 +17387,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C96BEF5-DD6D-4C9E-9266-87CB8B770F75}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5657</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5661</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4265</v>
       </c>
       <c r="C2" t="s">
         <v>4265</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D2" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4266</v>
       </c>
       <c r="C3" t="s">
         <v>4266</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D3" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4267</v>
       </c>
       <c r="C4" t="s">
         <v>4267</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D4" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4268</v>
       </c>
       <c r="C5" t="s">
         <v>4268</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D5" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4269</v>
       </c>
       <c r="C6" t="s">
         <v>4269</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4270</v>
       </c>
       <c r="C7" t="s">
         <v>4270</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D7" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4271</v>
       </c>
       <c r="C8" t="s">
         <v>4271</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D8" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4272</v>
       </c>
       <c r="C9" t="s">
         <v>4272</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4273</v>
       </c>
       <c r="C10" t="s">
         <v>4273</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D10" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4274</v>
       </c>
       <c r="C11" t="s">
         <v>4274</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="D11" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4275</v>
       </c>
       <c r="C12" t="s">
         <v>4275</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="D12" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4276</v>
       </c>
       <c r="C13" t="s">
         <v>4276</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D13" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4277</v>
       </c>
       <c r="C14" t="s">
         <v>4277</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="D14" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4278</v>
       </c>
       <c r="C15" t="s">
         <v>4278</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="D15" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4279</v>
       </c>
       <c r="C16" t="s">
         <v>4279</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D16" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4280</v>
       </c>
       <c r="C17" t="s">
         <v>4280</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D17" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4602</v>
       </c>
       <c r="C18" t="s">
         <v>4602</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D18" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4603</v>
       </c>
       <c r="C19" t="s">
         <v>4603</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D19" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4604</v>
       </c>
       <c r="C20" t="s">
         <v>4604</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D20" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4605</v>
       </c>
       <c r="C21" t="s">
         <v>4605</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D21" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4606</v>
       </c>
       <c r="C22" t="s">
         <v>4606</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D22" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4607</v>
       </c>
       <c r="C23" t="s">
         <v>4607</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D23" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4608</v>
       </c>
       <c r="C24" t="s">
         <v>4608</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D24" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4609</v>
       </c>
       <c r="C25" t="s">
         <v>4609</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D25" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4615</v>
       </c>
       <c r="C28" t="s">
         <v>4615</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D28" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4616</v>
       </c>
       <c r="C29" t="s">
         <v>4616</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D29" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4617</v>
       </c>
       <c r="C30" t="s">
         <v>4617</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="D30" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4618</v>
       </c>
       <c r="C31" t="s">
         <v>4618</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="D31" t="s">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4619</v>
       </c>
       <c r="C32" t="s">
         <v>4619</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="D32" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>5659</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4620</v>
       </c>
       <c r="C33" t="s">
         <v>4620</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="D33" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>5659</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>5656</v>
       </c>
     </row>
@@ -23945,17 +23964,17 @@
   <dimension ref="A2:A5987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4850" sqref="A4850:A4857"/>
+      <selection activeCell="P1310" sqref="P1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30455,237 +30474,237 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
         <v>1294</v>
       </c>
@@ -30695,127 +30714,127 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="1351" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="1356" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="1357" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="1358" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="1359" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="1360" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="1361" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="1362" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="1363" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="1364" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="1365" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="1366" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="1367" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="1368" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="1369" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="1371" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="1372" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="1373" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="1375" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
         <v>1320</v>
       </c>
@@ -44505,22 +44524,22 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="4113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4113" t="s">
         <v>3887</v>
       </c>
     </row>
-    <row r="4114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4114" t="s">
         <v>3888</v>
       </c>
     </row>
-    <row r="4115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4115" t="s">
         <v>3889</v>
       </c>
     </row>
-    <row r="4116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4116" t="s">
         <v>3890</v>
       </c>
@@ -46475,32 +46494,32 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="4507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4507" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4507" t="s">
         <v>4281</v>
       </c>
     </row>
-    <row r="4508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4508" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4508" t="s">
         <v>4282</v>
       </c>
     </row>
-    <row r="4509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4509" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4509" t="s">
         <v>4283</v>
       </c>
     </row>
-    <row r="4510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4510" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4510" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="4511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4511" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4511" t="s">
         <v>4285</v>
       </c>
     </row>
-    <row r="4512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4512" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4512" t="s">
         <v>4286</v>
       </c>
@@ -46900,62 +46919,62 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="4592" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4592" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="4593" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4593" t="s">
         <v>4367</v>
       </c>
     </row>
-    <row r="4594" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4594" t="s">
         <v>4368</v>
       </c>
     </row>
-    <row r="4595" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4595" t="s">
         <v>4369</v>
       </c>
     </row>
-    <row r="4596" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4596" t="s">
         <v>4370</v>
       </c>
     </row>
-    <row r="4597" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4597" t="s">
         <v>4371</v>
       </c>
     </row>
-    <row r="4598" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4598" t="s">
         <v>4372</v>
       </c>
     </row>
-    <row r="4599" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4599" t="s">
         <v>4373</v>
       </c>
     </row>
-    <row r="4600" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4600" t="s">
         <v>4374</v>
       </c>
     </row>
-    <row r="4601" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4601" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="4602" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4602" t="s">
         <v>4376</v>
       </c>
     </row>
-    <row r="4603" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4603" t="s">
         <v>4377</v>
       </c>
@@ -48165,67 +48184,67 @@
         <v>4609</v>
       </c>
     </row>
-    <row r="4845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4845" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4845" t="s">
         <v>4610</v>
       </c>
     </row>
-    <row r="4846" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4846" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4846" t="s">
         <v>4611</v>
       </c>
     </row>
-    <row r="4847" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4847" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4847" t="s">
         <v>4612</v>
       </c>
     </row>
-    <row r="4848" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4848" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4848" t="s">
         <v>4613</v>
       </c>
     </row>
-    <row r="4849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4849" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4849" t="s">
         <v>4614</v>
       </c>
     </row>
-    <row r="4850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4850" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4850" t="s">
         <v>4615</v>
       </c>
     </row>
-    <row r="4851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4851" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4851" t="s">
         <v>4616</v>
       </c>
     </row>
-    <row r="4852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4852" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4852" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4853" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4853" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4854" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4854" t="s">
         <v>4617</v>
       </c>
     </row>
-    <row r="4855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4855" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4855" t="s">
         <v>4618</v>
       </c>
     </row>
-    <row r="4856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4856" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4856" t="s">
         <v>4619</v>
       </c>
     </row>
-    <row r="4857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4857" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4857" t="s">
         <v>4620</v>
       </c>
@@ -53590,47 +53609,47 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="5930" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5930" t="s">
         <v>5598</v>
       </c>
     </row>
-    <row r="5931" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5931" t="s">
         <v>5599</v>
       </c>
     </row>
-    <row r="5932" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5932" t="s">
         <v>5600</v>
       </c>
     </row>
-    <row r="5933" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5933" t="s">
         <v>5601</v>
       </c>
     </row>
-    <row r="5934" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5934" t="s">
         <v>5602</v>
       </c>
     </row>
-    <row r="5935" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5935" t="s">
         <v>5603</v>
       </c>
     </row>
-    <row r="5936" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5936" t="s">
         <v>5604</v>
       </c>
     </row>
-    <row r="5937" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5937" t="s">
         <v>5605</v>
       </c>
     </row>
-    <row r="5938" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5938" t="s">
         <v>5606</v>
       </c>
@@ -53884,7 +53903,7 @@
   <autoFilter ref="A1:S5987" xr:uid="{CCD17408-24E8-454D-BFB7-782AAF432219}">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter val="*postpartum*"/>
+        <customFilter val="*BMI*"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -53897,7 +53916,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="P1310" sqref="P1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reportceneter_pom/ddlex.xlsx
+++ b/reportceneter_pom/ddlex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EclipseWorkspace\ReportCenterAutomation\reportceneter_pom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D392EB0F-6FEE-4284-BC45-331B91FBFB69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFAFC5E-3C9A-43B3-9EBE-3F533044C945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="12960" xr2:uid="{94D3A42D-4080-4CBF-BBB2-3630178CD065}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="5663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7323" uniqueCount="5665">
   <si>
     <t>Package Name</t>
   </si>
@@ -17026,6 +17026,12 @@
   </si>
   <si>
     <t>QA0505qa</t>
+  </si>
+  <si>
+    <t>Adv zero six five new demo data build Package</t>
+  </si>
+  <si>
+    <t>sfbddfsgn</t>
   </si>
 </sst>
 </file>
@@ -17390,7 +17396,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17423,7 +17429,7 @@
         <v>5659</v>
       </c>
       <c r="C2" t="s">
-        <v>4265</v>
+        <v>5664</v>
       </c>
       <c r="D2" t="s">
         <v>4265</v>
@@ -17434,7 +17440,7 @@
         <v>5662</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5659</v>
+        <v>5663</v>
       </c>
       <c r="C3" t="s">
         <v>4266</v>
@@ -17456,7 +17462,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>5659</v>
+        <v>5663</v>
       </c>
       <c r="C5" t="s">
         <v>4268</v>
